--- a/data/answer.xlsx
+++ b/data/answer.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="212">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -29,640 +29,625 @@
     <t xml:space="preserve">satisfy</t>
   </si>
   <si>
+    <t xml:space="preserve">apps</t>
+  </si>
+  <si>
+    <t xml:space="preserve"/>
+  </si>
+  <si>
+    <t xml:space="preserve">comment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">コメントコメント自由記述コメント自由記述</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HAD;JASP;S-PLUS;SPSS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">自由記述コメント自由記述コメント</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">コメント自由記述コメントコメント</t>
+  </si>
+  <si>
     <t xml:space="preserve">4</t>
   </si>
   <si>
-    <t xml:space="preserve">apps</t>
-  </si>
-  <si>
-    <t xml:space="preserve"/>
-  </si>
-  <si>
-    <t xml:space="preserve">comment</t>
+    <t xml:space="preserve">excel;JMP;S-PLUS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">自由記述コメント自由記述コメントコメント</t>
+  </si>
+  <si>
+    <t xml:space="preserve">コメント自由記述</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">excel;others</t>
+  </si>
+  <si>
+    <t xml:space="preserve">自由記述自由記述自由記述自由記述コメント</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">excel;JASP;S-PLUS;SPSS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">自由記述自由記述コメントコメント</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">自由記述自由記述コメント</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HAD;JASP;JMP;S-PLUS;SPSS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">自由記述</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">excel;HAD;JASP;S-PLUS;STATISTICA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">自由記述コメント</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">excel;HAD;JMP;SAS;SPSS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">excel;JASP;JMP;SAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">自由記述コメント自由記述自由記述</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">excel;HAD;JASP;SAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">excel;JASP;SAS;SPSS;STATISTICA</t>
   </si>
   <si>
     <t xml:space="preserve">コメントコメントコメントコメント</t>
   </si>
   <si>
-    <t xml:space="preserve">2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">excel;JMP;SPSS;STATISTICA</t>
+    <t xml:space="preserve">15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HAD;others;SAS;STATISTICA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">コメント自由記述自由記述自由記述</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">自由記述コメント自由記述コメント自由記述</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">excel;HAD;JASP;S-PLUS;SPSS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">excel;STATISTICA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">コメント</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">excel;SAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">コメントコメント</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S-PLUS</t>
   </si>
   <si>
     <t xml:space="preserve">自由記述コメント自由記述</t>
   </si>
   <si>
-    <t xml:space="preserve">others;SAS;STATISTICA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">コメントコメント</t>
-  </si>
-  <si>
-    <t xml:space="preserve">自由記述コメント自由記述自由記述</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">others;S-PLUS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HAD;others;STATISTICA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">自由記述自由記述コメントコメント</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HAD;JASP;others;S-PLUS;SAS</t>
+    <t xml:space="preserve">22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">excel;HAD;JASP;SAS;SPSS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">excel;HAD;JASP;SPSS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">excel;HAD;SAS;SPSS;STATISTICA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HAD;JASP;JMP</t>
   </si>
   <si>
     <t xml:space="preserve">コメント自由記述コメントコメント自由記述</t>
   </si>
   <si>
-    <t xml:space="preserve">8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">コメント自由記述</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S-PLUS;SAS;STATISTICA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HAD;others;S-PLUS;SAS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">excel;others;SPSS;STATISTICA</t>
+    <t xml:space="preserve">27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">excel;HAD;SAS;SPSS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">excel;others;SAS;SPSS;STATISTICA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">excel;SPSS;STATISTICA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">excel;SPSS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">excel;others;S-PLUS;SAS;STATISTICA</t>
   </si>
   <si>
     <t xml:space="preserve">自由記述コメントコメント</t>
   </si>
   <si>
-    <t xml:space="preserve">13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">excel;STATISTICA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14</t>
+    <t xml:space="preserve">32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HAD;JASP;JMP;S-PLUS;SAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JASP;others;S-PLUS;SPSS;STATISTICA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HAD;S-PLUS;STATISTICA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HAD;SAS;SPSS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">コメント自由記述自由記述コメント自由記述</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAS;SPSS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">コメントコメントコメントコメントコメント</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">excel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S-PLUS;STATISTICA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">自由記述自由記述コメントコメント自由記述</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HAD;JMP;others;S-PLUS;STATISTICA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">コメントコメント自由記述コメント</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HAD;JASP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">コメントコメント自由記述</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JASP;S-PLUS;SPSS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">自由記述コメントコメント自由記述自由記述</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JMP;others;STATISTICA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HAD;SAS;STATISTICA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">コメントコメントコメントコメント自由記述</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">excel;S-PLUS;SAS;SPSS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">自由記述自由記述</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">excel;JASP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HAD;JMP;S-PLUS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">自由記述自由記述自由記述</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S-PLUS;SPSS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">excel;HAD;SAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">コメント自由記述自由記述</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPSS;STATISTICA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">自由記述自由記述コメント自由記述</t>
+  </si>
+  <si>
+    <t xml:space="preserve">58</t>
+  </si>
+  <si>
+    <t xml:space="preserve">59</t>
+  </si>
+  <si>
+    <t xml:space="preserve">excel;HAD;JMP;SAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">60</t>
+  </si>
+  <si>
+    <t xml:space="preserve">61</t>
+  </si>
+  <si>
+    <t xml:space="preserve">62</t>
+  </si>
+  <si>
+    <t xml:space="preserve">63</t>
+  </si>
+  <si>
+    <t xml:space="preserve">64</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HAD;others;SAS;SPSS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">自由記述コメントコメントコメント自由記述</t>
+  </si>
+  <si>
+    <t xml:space="preserve">65</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JASP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">66</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JASP;JMP;SAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">67</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JASP;S-PLUS;SAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">自由記述自由記述自由記述コメント自由記述</t>
+  </si>
+  <si>
+    <t xml:space="preserve">68</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HAD;S-PLUS;SAS;STATISTICA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">69</t>
+  </si>
+  <si>
+    <t xml:space="preserve">70</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HAD;others;SAS;SPSS;STATISTICA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">自由記述自由記述自由記述コメント</t>
+  </si>
+  <si>
+    <t xml:space="preserve">72</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPSS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">73</t>
+  </si>
+  <si>
+    <t xml:space="preserve">74</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STATISTICA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">75</t>
+  </si>
+  <si>
+    <t xml:space="preserve">excel;HAD;others;STATISTICA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76</t>
+  </si>
+  <si>
+    <t xml:space="preserve">excel;JASP;SAS;STATISTICA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">自由記述コメントコメント自由記述コメント</t>
+  </si>
+  <si>
+    <t xml:space="preserve">77</t>
   </si>
   <si>
     <t xml:space="preserve">S-PLUS;SAS;SPSS;STATISTICA</t>
   </si>
   <si>
-    <t xml:space="preserve">15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">excel;JASP;others;SPSS;STATISTICA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">自由記述</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JASP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JASP;JMP;others;S-PLUS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">コメント自由記述自由記述コメント自由記述</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18</t>
+    <t xml:space="preserve">78</t>
+  </si>
+  <si>
+    <t xml:space="preserve">79</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JMP;others;SPSS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">コメント自由記述自由記述自由記述自由記述</t>
+  </si>
+  <si>
+    <t xml:space="preserve">80</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HAD;SAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">81</t>
+  </si>
+  <si>
+    <t xml:space="preserve">82</t>
   </si>
   <si>
     <t xml:space="preserve">HAD</t>
   </si>
   <si>
-    <t xml:space="preserve">コメントコメントコメントコメントコメント</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S-PLUS;SPSS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HAD;SAS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">excel;S-PLUS;SAS;SPSS;STATISTICA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">自由記述自由記述コメントコメント自由記述</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">excel;JMP;others;SAS;STATISTICA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">コメントコメント自由記述コメント</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">excel;JMP;SAS;SPSS;STATISTICA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">コメントコメント自由記述</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JMP;S-PLUS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HAD;JASP;SAS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">自由記述コメントコメント自由記述自由記述</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">excel;JASP;JMP;S-PLUS;SPSS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HAD;JMP;S-PLUS;SAS;SPSS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HAD;others;SAS;SPSS;STATISTICA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">コメントコメントコメントコメント自由記述</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">excel;SAS;STATISTICA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">自由記述自由記述コメント</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">自由記述自由記述</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">others;SPSS;STATISTICA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">自由記述コメント</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">自由記述自由記述自由記述</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JASP;others;SPSS;STATISTICA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STATISTICA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">コメント自由記述自由記述自由記述</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">excel;JASP;S-PLUS;SAS;SPSS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">excel;S-PLUS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">コメント自由記述自由記述</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JASP;JMP;STATISTICA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38</t>
-  </si>
-  <si>
-    <t xml:space="preserve">自由記述自由記述コメント自由記述</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JMP;S-PLUS;STATISTICA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42</t>
-  </si>
-  <si>
-    <t xml:space="preserve">others</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44</t>
-  </si>
-  <si>
-    <t xml:space="preserve">excel;JASP;S-PLUS;STATISTICA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">コメント</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45</t>
-  </si>
-  <si>
-    <t xml:space="preserve">excel;HAD;JASP;others;S-PLUS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">自由記述コメントコメントコメント自由記述</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46</t>
-  </si>
-  <si>
-    <t xml:space="preserve">excel;JMP;others</t>
-  </si>
-  <si>
-    <t xml:space="preserve">コメントコメント自由記述コメント自由記述</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47</t>
-  </si>
-  <si>
-    <t xml:space="preserve">excel;JASP;JMP;others;SPSS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48</t>
+    <t xml:space="preserve">コメント自由記述コメント</t>
+  </si>
+  <si>
+    <t xml:space="preserve">83</t>
+  </si>
+  <si>
+    <t xml:space="preserve">excel;JASP;JMP;SAS;SPSS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">84</t>
+  </si>
+  <si>
+    <t xml:space="preserve">コメント自由記述コメント自由記述コメント</t>
+  </si>
+  <si>
+    <t xml:space="preserve">85</t>
+  </si>
+  <si>
+    <t xml:space="preserve">excel;JMP;S-PLUS;SPSS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">コメントコメント自由記述自由記述コメント</t>
+  </si>
+  <si>
+    <t xml:space="preserve">86</t>
+  </si>
+  <si>
+    <t xml:space="preserve">87</t>
+  </si>
+  <si>
+    <t xml:space="preserve">88</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAS;SPSS;STATISTICA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">89</t>
+  </si>
+  <si>
+    <t xml:space="preserve">90</t>
+  </si>
+  <si>
+    <t xml:space="preserve">91</t>
+  </si>
+  <si>
+    <t xml:space="preserve">others;SAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">92</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HAD;JASP;SPSS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">コメントコメントコメント</t>
+  </si>
+  <si>
+    <t xml:space="preserve">93</t>
   </si>
   <si>
     <t xml:space="preserve">excel;HAD;S-PLUS;SAS;SPSS</t>
   </si>
   <si>
-    <t xml:space="preserve">自由記述自由記述自由記述コメント自由記述</t>
-  </si>
-  <si>
-    <t xml:space="preserve">49</t>
-  </si>
-  <si>
-    <t xml:space="preserve">自由記述コメント自由記述コメント自由記述</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">excel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52</t>
-  </si>
-  <si>
-    <t xml:space="preserve">自由記述自由記述自由記述コメント</t>
-  </si>
-  <si>
-    <t xml:space="preserve">53</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JMP;SAS;SPSS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">54</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JMP;S-PLUS;SAS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">55</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HAD;JMP;others;STATISTICA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">57</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JMP;SAS;STATISTICA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">自由記述コメントコメント自由記述コメント</t>
-  </si>
-  <si>
-    <t xml:space="preserve">58</t>
-  </si>
-  <si>
-    <t xml:space="preserve">59</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HAD;JASP;JMP;S-PLUS;SPSS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">60</t>
-  </si>
-  <si>
-    <t xml:space="preserve">excel;HAD;JMP;SPSS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">コメント自由記述自由記述自由記述自由記述</t>
-  </si>
-  <si>
-    <t xml:space="preserve">61</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SAS;SPSS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">62</t>
-  </si>
-  <si>
-    <t xml:space="preserve">63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">excel;JASP;SPSS;STATISTICA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">コメント自由記述コメント</t>
-  </si>
-  <si>
-    <t xml:space="preserve">64</t>
-  </si>
-  <si>
-    <t xml:space="preserve">excel;HAD;JMP;SAS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">65</t>
-  </si>
-  <si>
-    <t xml:space="preserve">excel;HAD;JASP;JMP;S-PLUS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">コメント自由記述コメント自由記述コメント</t>
-  </si>
-  <si>
-    <t xml:space="preserve">66</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JASP;others;STATISTICA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">コメントコメント自由記述自由記述コメント</t>
-  </si>
-  <si>
-    <t xml:space="preserve">67</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HAD;others;S-PLUS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">68</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JASP;others;S-PLUS;SAS;STATISTICA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">69</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SPSS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">70</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HAD;JASP;S-PLUS;SPSS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">71</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JMP;others;SPSS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">72</t>
-  </si>
-  <si>
-    <t xml:space="preserve">excel;HAD;S-PLUS;SPSS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">自由記述自由記述自由記述自由記述コメント</t>
-  </si>
-  <si>
-    <t xml:space="preserve">73</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JMP;SAS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">コメントコメントコメント</t>
-  </si>
-  <si>
-    <t xml:space="preserve">74</t>
-  </si>
-  <si>
-    <t xml:space="preserve">75</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HAD;others</t>
-  </si>
-  <si>
-    <t xml:space="preserve">76</t>
-  </si>
-  <si>
-    <t xml:space="preserve">77</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HAD;S-PLUS;SAS;STATISTICA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">78</t>
-  </si>
-  <si>
-    <t xml:space="preserve">79</t>
-  </si>
-  <si>
-    <t xml:space="preserve">80</t>
-  </si>
-  <si>
-    <t xml:space="preserve">81</t>
-  </si>
-  <si>
-    <t xml:space="preserve">82</t>
-  </si>
-  <si>
-    <t xml:space="preserve">83</t>
-  </si>
-  <si>
-    <t xml:space="preserve">excel;HAD;others;SAS;STATISTICA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">84</t>
-  </si>
-  <si>
-    <t xml:space="preserve">excel;S-PLUS;SPSS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">85</t>
-  </si>
-  <si>
-    <t xml:space="preserve">自由記述自由記述コメント自由記述コメント</t>
-  </si>
-  <si>
-    <t xml:space="preserve">86</t>
-  </si>
-  <si>
-    <t xml:space="preserve">excel;HAD;JASP;STATISTICA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">87</t>
-  </si>
-  <si>
-    <t xml:space="preserve">excel;JMP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">88</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HAD;JASP;others;SPSS;STATISTICA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">89</t>
-  </si>
-  <si>
-    <t xml:space="preserve">others;S-PLUS;SAS;SPSS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">90</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HAD;JASP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">91</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JASP;JMP;others;S-PLUS;SAS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">92</t>
-  </si>
-  <si>
-    <t xml:space="preserve">excel;JMP;S-PLUS;SAS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">93</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HAD;JASP;JMP;SAS;SPSS</t>
-  </si>
-  <si>
     <t xml:space="preserve">94</t>
   </si>
   <si>
+    <t xml:space="preserve">JMP</t>
+  </si>
+  <si>
     <t xml:space="preserve">95</t>
   </si>
   <si>
-    <t xml:space="preserve">JASP;JMP;others;S-PLUS;STATISTICA</t>
-  </si>
-  <si>
     <t xml:space="preserve">96</t>
   </si>
   <si>
+    <t xml:space="preserve">HAD;SPSS</t>
+  </si>
+  <si>
     <t xml:space="preserve">97</t>
   </si>
   <si>
     <t xml:space="preserve">98</t>
   </si>
   <si>
-    <t xml:space="preserve">JASP;SAS</t>
-  </si>
-  <si>
     <t xml:space="preserve">99</t>
   </si>
   <si>
     <t xml:space="preserve">100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">excel;others;SPSS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">コメントコメント自由記述自由記述自由記述</t>
   </si>
 </sst>
 </file>
@@ -1013,7 +998,7 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -1021,10 +1006,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
         <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -1032,142 +1017,142 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
         <v>8</v>
-      </c>
-      <c r="C4" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
         <v>10</v>
-      </c>
-      <c r="B6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B8" t="s">
         <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" t="s">
         <v>6</v>
-      </c>
-      <c r="C9" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B11" t="s">
         <v>4</v>
       </c>
       <c r="C11" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C12" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B14" t="s">
         <v>4</v>
       </c>
       <c r="C14" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" t="s">
         <v>6</v>
-      </c>
-      <c r="C15" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17">
@@ -1186,7 +1171,7 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C18" t="s">
         <v>20</v>
@@ -1197,7 +1182,7 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C19" t="s">
         <v>21</v>
@@ -1211,7 +1196,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21">
@@ -1219,7 +1204,7 @@
         <v>22</v>
       </c>
       <c r="B21" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C21" t="s">
         <v>23</v>
@@ -1230,7 +1215,7 @@
         <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C22" t="s">
         <v>24</v>
@@ -1244,7 +1229,7 @@
         <v>4</v>
       </c>
       <c r="C23" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24">
@@ -1252,10 +1237,10 @@
         <v>25</v>
       </c>
       <c r="B24" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C24" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25">
@@ -1263,571 +1248,571 @@
         <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C25" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B26" t="s">
         <v>4</v>
       </c>
       <c r="C26" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B27" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C27" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C28" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B29" t="s">
         <v>4</v>
       </c>
       <c r="C29" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B30" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C30" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C31" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B32" t="s">
         <v>4</v>
       </c>
       <c r="C32" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B33" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C33" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B35" t="s">
         <v>4</v>
       </c>
       <c r="C35" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B36" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C36" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C37" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B38" t="s">
         <v>4</v>
       </c>
       <c r="C38" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B39" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C39" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C40" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B41" t="s">
         <v>4</v>
       </c>
       <c r="C41" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C42" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C43" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B44" t="s">
         <v>4</v>
       </c>
       <c r="C44" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B45" t="s">
+        <v>5</v>
+      </c>
+      <c r="C45" t="s">
         <v>6</v>
-      </c>
-      <c r="C45" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C46" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B47" t="s">
         <v>4</v>
       </c>
       <c r="C47" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B48" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C48" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C49" t="s">
-        <v>7</v>
+        <v>47</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B50" t="s">
         <v>4</v>
       </c>
       <c r="C50" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B51" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C51" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C52" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B53" t="s">
         <v>4</v>
       </c>
       <c r="C53" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B54" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C54" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B55" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C55" t="s">
-        <v>49</v>
+        <v>18</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B56" t="s">
         <v>4</v>
       </c>
       <c r="C56" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B57" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C57" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C58" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B59" t="s">
         <v>4</v>
       </c>
       <c r="C59" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B60" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C60" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B61" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C61" t="s">
-        <v>9</v>
+        <v>57</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B62" t="s">
         <v>4</v>
       </c>
       <c r="C62" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B63" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C63" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B64" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C64" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B65" t="s">
         <v>4</v>
       </c>
       <c r="C65" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B66" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C66" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
+        <v>61</v>
+      </c>
+      <c r="B67" t="s">
+        <v>7</v>
+      </c>
+      <c r="C67" t="s">
         <v>57</v>
-      </c>
-      <c r="B67" t="s">
-        <v>8</v>
-      </c>
-      <c r="C67" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B68" t="s">
         <v>4</v>
       </c>
       <c r="C68" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B69" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C69" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B70" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C70" t="s">
-        <v>62</v>
+        <v>38</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B71" t="s">
         <v>4</v>
       </c>
       <c r="C71" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B72" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C72" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B73" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C73" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B74" t="s">
         <v>4</v>
       </c>
       <c r="C74" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B75" t="s">
+        <v>5</v>
+      </c>
+      <c r="C75" t="s">
         <v>6</v>
-      </c>
-      <c r="C75" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B76" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C76" t="s">
-        <v>67</v>
+        <v>24</v>
       </c>
     </row>
     <row r="77">
@@ -1838,7 +1823,7 @@
         <v>4</v>
       </c>
       <c r="C77" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="78">
@@ -1846,7 +1831,7 @@
         <v>68</v>
       </c>
       <c r="B78" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C78" t="s">
         <v>69</v>
@@ -1857,15 +1842,15 @@
         <v>68</v>
       </c>
       <c r="B79" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C79" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B80" t="s">
         <v>4</v>
@@ -1876,57 +1861,57 @@
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B81" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C81" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B82" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C82" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B83" t="s">
         <v>4</v>
       </c>
       <c r="C83" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B84" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C84" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B85" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C85" t="s">
-        <v>74</v>
+        <v>18</v>
       </c>
     </row>
     <row r="86">
@@ -1937,7 +1922,7 @@
         <v>4</v>
       </c>
       <c r="C86" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="87">
@@ -1945,7 +1930,7 @@
         <v>75</v>
       </c>
       <c r="B87" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C87" t="s">
         <v>76</v>
@@ -1956,147 +1941,147 @@
         <v>75</v>
       </c>
       <c r="B88" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C88" t="s">
-        <v>77</v>
+        <v>6</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B89" t="s">
         <v>4</v>
       </c>
       <c r="C89" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
+        <v>77</v>
+      </c>
+      <c r="B90" t="s">
+        <v>5</v>
+      </c>
+      <c r="C90" t="s">
         <v>78</v>
-      </c>
-      <c r="B90" t="s">
-        <v>6</v>
-      </c>
-      <c r="C90" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B91" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C91" t="s">
-        <v>79</v>
+        <v>43</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B92" t="s">
         <v>4</v>
       </c>
       <c r="C92" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
+        <v>79</v>
+      </c>
+      <c r="B93" t="s">
+        <v>5</v>
+      </c>
+      <c r="C93" t="s">
         <v>80</v>
-      </c>
-      <c r="B93" t="s">
-        <v>6</v>
-      </c>
-      <c r="C93" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B94" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C94" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B95" t="s">
         <v>4</v>
       </c>
       <c r="C95" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
+        <v>82</v>
+      </c>
+      <c r="B96" t="s">
+        <v>5</v>
+      </c>
+      <c r="C96" t="s">
         <v>83</v>
-      </c>
-      <c r="B96" t="s">
-        <v>6</v>
-      </c>
-      <c r="C96" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B97" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C97" t="s">
-        <v>84</v>
+        <v>6</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B98" t="s">
         <v>4</v>
       </c>
       <c r="C98" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
+        <v>84</v>
+      </c>
+      <c r="B99" t="s">
+        <v>5</v>
+      </c>
+      <c r="C99" t="s">
         <v>85</v>
-      </c>
-      <c r="B99" t="s">
-        <v>6</v>
-      </c>
-      <c r="C99" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B100" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C100" t="s">
-        <v>34</v>
+        <v>57</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B101" t="s">
         <v>4</v>
@@ -2107,387 +2092,387 @@
     </row>
     <row r="102">
       <c r="A102" t="s">
+        <v>86</v>
+      </c>
+      <c r="B102" t="s">
+        <v>5</v>
+      </c>
+      <c r="C102" t="s">
         <v>87</v>
-      </c>
-      <c r="B102" t="s">
-        <v>6</v>
-      </c>
-      <c r="C102" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B103" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C103" t="s">
-        <v>89</v>
+        <v>30</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B104" t="s">
         <v>4</v>
       </c>
       <c r="C104" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B105" t="s">
+        <v>5</v>
+      </c>
+      <c r="C105" t="s">
         <v>6</v>
-      </c>
-      <c r="C105" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B106" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C106" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B107" t="s">
         <v>4</v>
       </c>
       <c r="C107" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B108" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C108" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B109" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C109" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B110" t="s">
         <v>4</v>
       </c>
       <c r="C110" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B111" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C111" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B112" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C112" t="s">
-        <v>7</v>
+        <v>94</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B113" t="s">
         <v>4</v>
       </c>
       <c r="C113" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B114" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C114" t="s">
-        <v>7</v>
+        <v>96</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B115" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C115" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B116" t="s">
         <v>4</v>
       </c>
       <c r="C116" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B117" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C117" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B118" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C118" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B119" t="s">
         <v>4</v>
       </c>
       <c r="C119" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B120" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C120" t="s">
-        <v>7</v>
+        <v>56</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B121" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C121" t="s">
-        <v>7</v>
+        <v>100</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B122" t="s">
         <v>4</v>
       </c>
       <c r="C122" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
+        <v>101</v>
+      </c>
+      <c r="B123" t="s">
+        <v>5</v>
+      </c>
+      <c r="C123" t="s">
         <v>102</v>
-      </c>
-      <c r="B123" t="s">
-        <v>6</v>
-      </c>
-      <c r="C123" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B124" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C124" t="s">
-        <v>7</v>
+        <v>103</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B125" t="s">
         <v>4</v>
       </c>
       <c r="C125" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B126" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C126" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B127" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C127" t="s">
-        <v>7</v>
+        <v>106</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B128" t="s">
         <v>4</v>
       </c>
       <c r="C128" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B129" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C129" t="s">
-        <v>7</v>
+        <v>98</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B130" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C130" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B131" t="s">
         <v>4</v>
       </c>
       <c r="C131" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B132" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C132" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B133" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C133" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B134" t="s">
         <v>4</v>
       </c>
       <c r="C134" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B135" t="s">
+        <v>5</v>
+      </c>
+      <c r="C135" t="s">
         <v>6</v>
-      </c>
-      <c r="C135" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B136" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C136" t="s">
-        <v>111</v>
+        <v>81</v>
       </c>
     </row>
     <row r="137">
@@ -2498,7 +2483,7 @@
         <v>4</v>
       </c>
       <c r="C137" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="138">
@@ -2506,7 +2491,7 @@
         <v>112</v>
       </c>
       <c r="B138" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C138" t="s">
         <v>113</v>
@@ -2517,43 +2502,43 @@
         <v>112</v>
       </c>
       <c r="B139" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C139" t="s">
-        <v>114</v>
+        <v>60</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B140" t="s">
         <v>4</v>
       </c>
       <c r="C140" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s">
+        <v>114</v>
+      </c>
+      <c r="B141" t="s">
+        <v>5</v>
+      </c>
+      <c r="C141" t="s">
         <v>115</v>
-      </c>
-      <c r="B141" t="s">
-        <v>6</v>
-      </c>
-      <c r="C141" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B142" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C142" t="s">
-        <v>7</v>
+        <v>116</v>
       </c>
     </row>
     <row r="143">
@@ -2564,7 +2549,7 @@
         <v>4</v>
       </c>
       <c r="C143" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="144">
@@ -2572,7 +2557,7 @@
         <v>117</v>
       </c>
       <c r="B144" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C144" t="s">
         <v>118</v>
@@ -2583,142 +2568,142 @@
         <v>117</v>
       </c>
       <c r="B145" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C145" t="s">
-        <v>119</v>
+        <v>27</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B146" t="s">
         <v>4</v>
       </c>
       <c r="C146" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B147" t="s">
+        <v>5</v>
+      </c>
+      <c r="C147" t="s">
         <v>6</v>
-      </c>
-      <c r="C147" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="s">
+        <v>119</v>
+      </c>
+      <c r="B148" t="s">
+        <v>7</v>
+      </c>
+      <c r="C148" t="s">
         <v>120</v>
-      </c>
-      <c r="B148" t="s">
-        <v>8</v>
-      </c>
-      <c r="C148" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B149" t="s">
         <v>4</v>
       </c>
       <c r="C149" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="s">
+        <v>121</v>
+      </c>
+      <c r="B150" t="s">
+        <v>5</v>
+      </c>
+      <c r="C150" t="s">
         <v>122</v>
-      </c>
-      <c r="B150" t="s">
-        <v>6</v>
-      </c>
-      <c r="C150" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B151" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C151" t="s">
-        <v>62</v>
+        <v>33</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B152" t="s">
         <v>4</v>
       </c>
       <c r="C152" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="s">
+        <v>123</v>
+      </c>
+      <c r="B153" t="s">
+        <v>5</v>
+      </c>
+      <c r="C153" t="s">
         <v>124</v>
-      </c>
-      <c r="B153" t="s">
-        <v>6</v>
-      </c>
-      <c r="C153" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B154" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C154" t="s">
-        <v>7</v>
+        <v>125</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B155" t="s">
         <v>4</v>
       </c>
       <c r="C155" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B156" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C156" t="s">
-        <v>7</v>
+        <v>96</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B157" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C157" t="s">
-        <v>126</v>
+        <v>81</v>
       </c>
     </row>
     <row r="158">
@@ -2729,7 +2714,7 @@
         <v>4</v>
       </c>
       <c r="C158" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="159">
@@ -2737,7 +2722,7 @@
         <v>127</v>
       </c>
       <c r="B159" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C159" t="s">
         <v>128</v>
@@ -2748,10 +2733,10 @@
         <v>127</v>
       </c>
       <c r="B160" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C160" t="s">
-        <v>108</v>
+        <v>47</v>
       </c>
     </row>
     <row r="161">
@@ -2762,7 +2747,7 @@
         <v>4</v>
       </c>
       <c r="C161" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="162">
@@ -2770,7 +2755,7 @@
         <v>129</v>
       </c>
       <c r="B162" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C162" t="s">
         <v>130</v>
@@ -2781,10 +2766,10 @@
         <v>129</v>
       </c>
       <c r="B163" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C163" t="s">
-        <v>108</v>
+        <v>6</v>
       </c>
     </row>
     <row r="164">
@@ -2795,7 +2780,7 @@
         <v>4</v>
       </c>
       <c r="C164" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="165">
@@ -2803,10 +2788,10 @@
         <v>131</v>
       </c>
       <c r="B165" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C165" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="166">
@@ -2814,43 +2799,43 @@
         <v>131</v>
       </c>
       <c r="B166" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C166" t="s">
-        <v>7</v>
+        <v>132</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B167" t="s">
         <v>4</v>
       </c>
       <c r="C167" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B168" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C168" t="s">
-        <v>133</v>
+        <v>56</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B169" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C169" t="s">
-        <v>108</v>
+        <v>6</v>
       </c>
     </row>
     <row r="170">
@@ -2861,7 +2846,7 @@
         <v>4</v>
       </c>
       <c r="C170" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="171">
@@ -2869,7 +2854,7 @@
         <v>134</v>
       </c>
       <c r="B171" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C171" t="s">
         <v>135</v>
@@ -2880,7 +2865,7 @@
         <v>134</v>
       </c>
       <c r="B172" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C172" t="s">
         <v>136</v>
@@ -2894,7 +2879,7 @@
         <v>4</v>
       </c>
       <c r="C173" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="174">
@@ -2902,10 +2887,10 @@
         <v>137</v>
       </c>
       <c r="B174" t="s">
+        <v>5</v>
+      </c>
+      <c r="C174" t="s">
         <v>6</v>
-      </c>
-      <c r="C174" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="175">
@@ -2913,10 +2898,10 @@
         <v>137</v>
       </c>
       <c r="B175" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C175" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="176">
@@ -2927,7 +2912,7 @@
         <v>4</v>
       </c>
       <c r="C176" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="177">
@@ -2935,7 +2920,7 @@
         <v>138</v>
       </c>
       <c r="B177" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C177" t="s">
         <v>139</v>
@@ -2946,10 +2931,10 @@
         <v>138</v>
       </c>
       <c r="B178" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C178" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="179">
@@ -2960,7 +2945,7 @@
         <v>4</v>
       </c>
       <c r="C179" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="180">
@@ -2968,10 +2953,10 @@
         <v>140</v>
       </c>
       <c r="B180" t="s">
+        <v>5</v>
+      </c>
+      <c r="C180" t="s">
         <v>6</v>
-      </c>
-      <c r="C180" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="181">
@@ -2979,623 +2964,623 @@
         <v>140</v>
       </c>
       <c r="B181" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C181" t="s">
-        <v>142</v>
+        <v>6</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B182" t="s">
         <v>4</v>
       </c>
       <c r="C182" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B183" t="s">
+        <v>5</v>
+      </c>
+      <c r="C183" t="s">
         <v>6</v>
-      </c>
-      <c r="C183" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B184" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C184" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B185" t="s">
         <v>4</v>
       </c>
       <c r="C185" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B186" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C186" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B187" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C187" t="s">
-        <v>111</v>
+        <v>18</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B188" t="s">
         <v>4</v>
       </c>
       <c r="C188" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B189" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C189" t="s">
-        <v>147</v>
+        <v>76</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B190" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C190" t="s">
-        <v>148</v>
+        <v>54</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="B191" t="s">
         <v>4</v>
       </c>
       <c r="C191" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="B192" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C192" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="B193" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C193" t="s">
-        <v>84</v>
+        <v>146</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="B194" t="s">
         <v>4</v>
       </c>
       <c r="C194" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="B195" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C195" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="B196" t="s">
+        <v>7</v>
+      </c>
+      <c r="C196" t="s">
         <v>8</v>
-      </c>
-      <c r="C196" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="B197" t="s">
         <v>4</v>
       </c>
       <c r="C197" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="B198" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C198" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="B199" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C199" t="s">
-        <v>156</v>
+        <v>6</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="B200" t="s">
         <v>4</v>
       </c>
       <c r="C200" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="B201" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C201" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="B202" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C202" t="s">
-        <v>7</v>
+        <v>153</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="B203" t="s">
         <v>4</v>
       </c>
       <c r="C203" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="B204" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C204" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="B205" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C205" t="s">
-        <v>98</v>
+        <v>49</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B206" t="s">
         <v>4</v>
       </c>
       <c r="C206" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B207" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C207" t="s">
-        <v>162</v>
+        <v>80</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B208" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C208" t="s">
-        <v>7</v>
+        <v>106</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="B209" t="s">
         <v>4</v>
       </c>
       <c r="C209" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="B210" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C210" t="s">
-        <v>164</v>
+        <v>96</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="B211" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C211" t="s">
-        <v>77</v>
+        <v>6</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="B212" t="s">
         <v>4</v>
       </c>
       <c r="C212" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="B213" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C213" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="B214" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C214" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="B215" t="s">
         <v>4</v>
       </c>
       <c r="C215" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="B216" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C216" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="B217" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C217" t="s">
-        <v>169</v>
+        <v>54</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="B218" t="s">
         <v>4</v>
       </c>
       <c r="C218" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="B219" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C219" t="s">
-        <v>171</v>
+        <v>98</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="B220" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C220" t="s">
-        <v>172</v>
+        <v>54</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="B221" t="s">
         <v>4</v>
       </c>
       <c r="C221" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="B222" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C222" t="s">
-        <v>104</v>
+        <v>165</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="B223" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C223" t="s">
-        <v>172</v>
+        <v>6</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="B224" t="s">
         <v>4</v>
       </c>
       <c r="C224" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="B225" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C225" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="B226" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C226" t="s">
-        <v>7</v>
+        <v>54</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="B227" t="s">
         <v>4</v>
       </c>
       <c r="C227" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="B228" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C228" t="s">
-        <v>81</v>
+        <v>169</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="B229" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C229" t="s">
-        <v>119</v>
+        <v>170</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="B230" t="s">
         <v>4</v>
       </c>
       <c r="C230" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="B231" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C231" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="B232" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C232" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="B233" t="s">
         <v>4</v>
       </c>
       <c r="C233" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="B234" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C234" t="s">
-        <v>36</v>
+        <v>93</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="B235" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C235" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="B236" t="s">
         <v>4</v>
       </c>
       <c r="C236" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="B237" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C237" t="s">
         <v>175</v>
@@ -3603,208 +3588,208 @@
     </row>
     <row r="238">
       <c r="A238" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="B238" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C238" t="s">
-        <v>108</v>
+        <v>176</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B239" t="s">
         <v>4</v>
       </c>
       <c r="C239" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B240" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C240" t="s">
-        <v>7</v>
+        <v>178</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B241" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C241" t="s">
-        <v>7</v>
+        <v>57</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B242" t="s">
         <v>4</v>
       </c>
       <c r="C242" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B243" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C243" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B244" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C244" t="s">
-        <v>82</v>
+        <v>146</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B245" t="s">
         <v>4</v>
       </c>
       <c r="C245" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B246" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C246" t="s">
-        <v>7</v>
+        <v>181</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B247" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C247" t="s">
-        <v>108</v>
+        <v>182</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B248" t="s">
         <v>4</v>
       </c>
       <c r="C248" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="s">
+        <v>183</v>
+      </c>
+      <c r="B249" t="s">
+        <v>5</v>
+      </c>
+      <c r="C249" t="s">
         <v>184</v>
-      </c>
-      <c r="B249" t="s">
-        <v>6</v>
-      </c>
-      <c r="C249" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B250" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C250" t="s">
-        <v>27</v>
+        <v>125</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B251" t="s">
         <v>4</v>
       </c>
       <c r="C251" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B252" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C252" t="s">
-        <v>187</v>
+        <v>165</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="s">
+        <v>185</v>
+      </c>
+      <c r="B253" t="s">
+        <v>7</v>
+      </c>
+      <c r="C253" t="s">
         <v>186</v>
-      </c>
-      <c r="B253" t="s">
-        <v>8</v>
-      </c>
-      <c r="C253" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B254" t="s">
         <v>4</v>
       </c>
       <c r="C254" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="s">
+        <v>187</v>
+      </c>
+      <c r="B255" t="s">
+        <v>5</v>
+      </c>
+      <c r="C255" t="s">
         <v>188</v>
-      </c>
-      <c r="B255" t="s">
-        <v>6</v>
-      </c>
-      <c r="C255" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B256" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C256" t="s">
         <v>189</v>
@@ -3818,7 +3803,7 @@
         <v>4</v>
       </c>
       <c r="C257" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="258">
@@ -3826,10 +3811,10 @@
         <v>190</v>
       </c>
       <c r="B258" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C258" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
     </row>
     <row r="259">
@@ -3837,472 +3822,472 @@
         <v>190</v>
       </c>
       <c r="B259" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C259" t="s">
-        <v>108</v>
+        <v>6</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B260" t="s">
         <v>4</v>
       </c>
       <c r="C260" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B261" t="s">
+        <v>5</v>
+      </c>
+      <c r="C261" t="s">
         <v>6</v>
-      </c>
-      <c r="C261" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B262" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C262" t="s">
-        <v>62</v>
+        <v>136</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B263" t="s">
         <v>4</v>
       </c>
       <c r="C263" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B264" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C264" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B265" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C265" t="s">
-        <v>79</v>
+        <v>6</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B266" t="s">
         <v>4</v>
       </c>
       <c r="C266" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B267" t="s">
+        <v>5</v>
+      </c>
+      <c r="C267" t="s">
         <v>6</v>
-      </c>
-      <c r="C267" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B268" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C268" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B269" t="s">
         <v>4</v>
       </c>
       <c r="C269" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B270" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C270" t="s">
-        <v>199</v>
+        <v>66</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B271" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C271" t="s">
-        <v>89</v>
+        <v>182</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="B272" t="s">
         <v>4</v>
       </c>
       <c r="C272" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="B273" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C273" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="B274" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C274" t="s">
-        <v>153</v>
+        <v>21</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="B275" t="s">
         <v>4</v>
       </c>
       <c r="C275" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="B276" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C276" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="B277" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C277" t="s">
-        <v>119</v>
+        <v>200</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B278" t="s">
         <v>4</v>
       </c>
       <c r="C278" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B279" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C279" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B280" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C280" t="s">
-        <v>153</v>
+        <v>200</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B281" t="s">
         <v>4</v>
       </c>
       <c r="C281" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B282" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C282" t="s">
-        <v>7</v>
+        <v>204</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B283" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C283" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B284" t="s">
         <v>4</v>
       </c>
       <c r="C284" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B285" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C285" t="s">
-        <v>208</v>
+        <v>152</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B286" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C286" t="s">
-        <v>111</v>
+        <v>153</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B287" t="s">
         <v>4</v>
       </c>
       <c r="C287" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B288" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C288" t="s">
-        <v>7</v>
+        <v>207</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B289" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C289" t="s">
-        <v>172</v>
+        <v>120</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B290" t="s">
         <v>4</v>
       </c>
       <c r="C290" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B291" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C291" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B292" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C292" t="s">
-        <v>189</v>
+        <v>18</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B293" t="s">
         <v>4</v>
       </c>
       <c r="C293" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B294" t="s">
+        <v>5</v>
+      </c>
+      <c r="C294" t="s">
         <v>6</v>
-      </c>
-      <c r="C294" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B295" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C295" t="s">
-        <v>108</v>
+        <v>54</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B296" t="s">
         <v>4</v>
       </c>
       <c r="C296" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B297" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C297" t="s">
-        <v>7</v>
+        <v>165</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B298" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C298" t="s">
-        <v>34</v>
+        <v>6</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B299" t="s">
         <v>4</v>
       </c>
       <c r="C299" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B300" t="s">
+        <v>5</v>
+      </c>
+      <c r="C300" t="s">
         <v>6</v>
-      </c>
-      <c r="C300" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B301" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C301" t="s">
-        <v>216</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
